--- a/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="13155"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>球体材质，摩擦力较低</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>子弹,反弹消耗低</t>
   </si>
 </sst>
 </file>
@@ -1036,13 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
@@ -1197,6 +1203,35 @@
       </c>
       <c r="I5" s="2">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Friction</t>
   </si>
   <si>
+    <t>GravityScale</t>
+  </si>
+  <si>
     <t>RotationFriction</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>摩擦力</t>
   </si>
   <si>
+    <t>重力缩放,如果为0则会关闭重力</t>
+  </si>
+  <si>
     <t>旋转摩擦力</t>
   </si>
   <si>
@@ -96,7 +102,13 @@
     <t>0003</t>
   </si>
   <si>
-    <t>子弹,反弹消耗低</t>
+    <t>普通子弹,反弹消耗低,无重力下坠</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>正常重力子弹</t>
   </si>
 </sst>
 </file>
@@ -1042,25 +1054,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="18.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="18.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:9">
+    <row r="1" ht="29" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1088,149 +1101,199 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="54" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:9">
+    <row r="4" ht="25" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>140</v>
       </c>
       <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>140</v>
       </c>
-      <c r="E4" s="3" t="b">
+      <c r="F4" s="3" t="b">
         <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.5</v>
       </c>
       <c r="G4" s="3">
         <v>0.5</v>
       </c>
       <c r="H4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="3">
         <v>0.75</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:9">
+    <row r="5" ht="27" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>40</v>
       </c>
       <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="F5" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.7</v>
       </c>
       <c r="G5" s="2">
         <v>0.7</v>
       </c>
       <c r="H5" s="2">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="I5" s="2">
         <v>0.85</v>
       </c>
+      <c r="J5" s="2">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:9">
+    <row r="6" ht="38" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <v>140</v>
       </c>
       <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>140</v>
       </c>
-      <c r="E6" s="2" t="b">
+      <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.75</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.5</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -30,6 +30,9 @@
     <t>GravityScale</t>
   </si>
   <si>
+    <t>RotationType</t>
+  </si>
+  <si>
     <t>RotationFriction</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
     <t>FallBounceRotation</t>
   </si>
   <si>
+    <t>DynamicCollision</t>
+  </si>
+  <si>
     <t>表Id</t>
   </si>
   <si>
@@ -60,6 +66,12 @@
     <t>重力缩放,如果为0则会关闭重力</t>
   </si>
   <si>
+    <t>物体旋转控制类型:
+0.不受运动影响
+1.只受水平方向运动速度影响
+2.受水平和垂直运动方向影响, 可以做迫击炮炮弹的效果</t>
+  </si>
+  <si>
     <t>旋转摩擦力</t>
   </si>
   <si>
@@ -78,13 +90,22 @@
     <t>物体下坠回弹后的旋转速度衰减比例</t>
   </si>
   <si>
+    <t>动态开关碰撞器,在物体高度大于16时是否关闭碰撞检测</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
+    <t>byte</t>
+  </si>
+  <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
   <si>
     <t>0001</t>
@@ -724,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +754,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1054,26 +1078,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="18.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:10">
+    <row r="1" ht="29" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1104,77 +1131,95 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="54" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="104" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
+    <row r="4" ht="25" customHeight="1" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>140</v>
@@ -1183,30 +1228,36 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>140</v>
       </c>
-      <c r="F4" s="3" t="b">
+      <c r="G4" s="3" t="b">
         <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.5</v>
       </c>
       <c r="H4" s="3">
         <v>0.5</v>
       </c>
       <c r="I4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.75</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0.5</v>
       </c>
+      <c r="L4" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
+    <row r="5" ht="27" customHeight="1" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>40</v>
@@ -1215,30 +1266,36 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="b">
+      <c r="G5" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.7</v>
       </c>
       <c r="H5" s="2">
         <v>0.7</v>
       </c>
       <c r="I5" s="2">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="J5" s="2">
         <v>0.85</v>
       </c>
+      <c r="K5" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="38" customHeight="1" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
+    <row r="6" ht="38" customHeight="1" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>140</v>
@@ -1247,30 +1304,36 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>140</v>
       </c>
-      <c r="F6" s="2" t="b">
+      <c r="G6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.75</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>0.5</v>
       </c>
+      <c r="L6" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
+    <row r="7" ht="30" customHeight="1" spans="1:12">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>140</v>
@@ -1279,22 +1342,28 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
         <v>140</v>
       </c>
-      <c r="F7" s="2" t="b">
+      <c r="G7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.75</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>0.5</v>
+      </c>
+      <c r="L7" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="24960" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>正常重力子弹</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>球体子弹，摩擦力较低</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,9 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1078,13 +1081,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
@@ -1097,7 +1100,7 @@
     <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:12">
@@ -1134,7 +1137,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1215,10 +1218,10 @@
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:12">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="3">
@@ -1248,12 +1251,12 @@
       <c r="K4" s="3">
         <v>0.5</v>
       </c>
-      <c r="L4" s="4" t="b">
+      <c r="L4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:12">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1286,12 +1289,12 @@
       <c r="K5" s="2">
         <v>0.85</v>
       </c>
-      <c r="L5" s="4" t="b">
+      <c r="L5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:12">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1324,12 +1327,12 @@
       <c r="K6" s="2">
         <v>0.5</v>
       </c>
-      <c r="L6" s="4" t="b">
+      <c r="L6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:12">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1362,8 +1365,46 @@
       <c r="K7" s="2">
         <v>0.5</v>
       </c>
-      <c r="L7" s="4" t="b">
-        <v>1</v>
+      <c r="L7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityMaterial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24960" windowHeight="12990"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>球体子弹，摩擦力较低</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>弹壳, 摩擦力比默认材质低</t>
   </si>
 </sst>
 </file>
@@ -1081,13 +1087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
@@ -1404,6 +1410,44 @@
         <v>0.85</v>
       </c>
       <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
